--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed1/result_data_RandomForest.xlsx
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.538</v>
+        <v>16.45259999999999</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.4159</v>
+        <v>16.53229999999999</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.91730000000001</v>
+        <v>15.6725</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>15.99360000000001</v>
+        <v>15.9293</v>
       </c>
     </row>
     <row r="17">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.09869999999999</v>
+        <v>15.91219999999999</v>
       </c>
     </row>
     <row r="21">
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.55119999999998</v>
+        <v>16.60469999999999</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.22230000000002</v>
+        <v>17.23260000000002</v>
       </c>
     </row>
     <row r="30">
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.96039999999999</v>
+        <v>16.95759999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.2241</v>
+        <v>17.0403</v>
       </c>
     </row>
     <row r="41">
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.18529999999999</v>
+        <v>17.11569999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.39130000000001</v>
+        <v>17.2709</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.1464</v>
+        <v>17.0797</v>
       </c>
     </row>
     <row r="53">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.5499</v>
+        <v>16.6178</v>
       </c>
     </row>
     <row r="58">
@@ -1443,7 +1443,7 @@
         <v>-9.48</v>
       </c>
       <c r="E59" t="n">
-        <v>15.9158</v>
+        <v>15.79510000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.6189</v>
+        <v>16.6909</v>
       </c>
     </row>
     <row r="63">
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.29610000000002</v>
+        <v>17.11600000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.35400000000001</v>
+        <v>17.04190000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.63109999999998</v>
+        <v>16.66079999999998</v>
       </c>
     </row>
     <row r="75">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.41280000000001</v>
+        <v>18.49360000000003</v>
       </c>
     </row>
     <row r="93">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4147</v>
+        <v>16.4122</v>
       </c>
     </row>
     <row r="101">
